--- a/images/Cogulator-Operator-Times-Chart.xlsx
+++ b/images/Cogulator-Operator-Times-Chart.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sestes/Documents/GitHub/Cogulator.github.io/images/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="314" yWindow="65" windowWidth="18759" windowHeight="11036"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>Time (ms)</t>
   </si>
@@ -36,9 +49,6 @@
     <t>One cycle of perceptual processor</t>
   </si>
   <si>
-    <t>Listen to someone speaking</t>
-  </si>
-  <si>
     <t>One cycle of the cognitive processor</t>
   </si>
   <si>
@@ -171,14 +181,86 @@
     <t>Move hands to mouse or keyboard</t>
   </si>
   <si>
-    <t>Speak for some number of words</t>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Proofread</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Time to read one word.</t>
+  </si>
+  <si>
+    <t>Time to carefully read one word.</t>
+  </si>
+  <si>
+    <t>Listen to someone speak</t>
+  </si>
+  <si>
+    <t>Speak</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Remove item from working memory</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>Drag item across touchscreen</t>
+  </si>
+  <si>
+    <t>Grasp</t>
+  </si>
+  <si>
+    <t>Reach and grasp an object with hand</t>
+  </si>
+  <si>
+    <t>Swipe</t>
+  </si>
+  <si>
+    <t>Swipe or flick touchscreen gesture</t>
+  </si>
+  <si>
+    <t>Tap</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>Touch a series of touchscreen buttons</t>
+  </si>
+  <si>
+    <t>Press a touchscreen button</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>One turn of a knob or dial</t>
+  </si>
+  <si>
+    <t>Handwriting (2 seconds per word in label)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +280,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +328,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -238,23 +336,59 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="dotted">
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -262,12 +396,52 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="41">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -328,12 +502,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -363,12 +537,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -572,411 +746,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="9.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="2" max="2" width="9.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="30.15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="5">
+        <v>550</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" ref="E4:E8" si="0">"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="7">
+        <v>330</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5">
+        <v>260</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" ref="E6:E7" si="1">"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1250</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5">
+        <v>400</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>400</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3">
-        <v>550</v>
-      </c>
-      <c r="E3" s="3" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1250</v>
-      </c>
-      <c r="E4" s="3" t="str">
-        <f t="shared" ref="E4:E6" si="0">"-"</f>
-        <v>-</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" ref="E11:E32" si="2">"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>70</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="7">
-        <v>400</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>400</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3" t="str">
-        <f t="shared" ref="E9:E21" si="1">"-"</f>
-        <v>-</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>550</v>
-      </c>
-      <c r="E10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1250</v>
-      </c>
-      <c r="E11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1250</v>
-      </c>
-      <c r="E12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
         <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>550</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>50</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8">
-        <v>50</v>
-      </c>
-      <c r="E14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="8" t="s">
+    </row>
+    <row r="17" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1250</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5">
+        <v>320</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="5">
+        <v>230</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="7">
+        <v>750</v>
+      </c>
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5">
+        <v>450</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5">
+        <v>280</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="5">
+        <v>70</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="1" t="s">
+    <row r="25" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="1">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="D25" s="7">
         <v>950</v>
       </c>
-      <c r="E16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5">
+        <v>170</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="7">
         <v>450</v>
       </c>
-      <c r="E17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="8">
-        <v>320</v>
-      </c>
-      <c r="E18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="5">
+        <v>800</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="5">
+        <v>490</v>
+      </c>
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D31" s="1">
         <v>280</v>
       </c>
-      <c r="E19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="3">
-        <v>280</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3">
-        <v>70</v>
-      </c>
-      <c r="E21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
+      <c r="G31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -990,7 +1365,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1002,7 +1377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
